--- a/[5] Tester Results/RECORDER_EFFECT_AVG_BY_SEX_METRIC.xlsx
+++ b/[5] Tester Results/RECORDER_EFFECT_AVG_BY_SEX_METRIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-1.033206430784445</v>
+        <v>-0.6718142083663977</v>
       </c>
       <c r="D2" t="n">
-        <v>-2059.646700980391</v>
+        <v>-154.2628382352944</v>
       </c>
     </row>
     <row r="3">
@@ -481,50 +481,50 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.214775986505303</v>
+        <v>-0.7614657358179575</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7735294117646987</v>
+        <v>-6.833823529411767</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>AUC</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.6902067430061777</v>
+        <v>2.008254172021057</v>
       </c>
       <c r="D4" t="n">
-        <v>-14.84705882352938</v>
+        <v>1170.286148692811</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>female</t>
+          <t>male</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>reactionTime</t>
+          <t>peakTime</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8274511364723653</v>
+        <v>0.2430287871187781</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7401960784313717</v>
+        <v>0.1397058823529367</v>
       </c>
     </row>
     <row r="6">
@@ -535,68 +535,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>AUC</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.314485811109617</v>
+        <v>2.765747531428104</v>
       </c>
       <c r="D6" t="n">
-        <v>8169.632877450979</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>peakTime</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1.432482671458399</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.980392156862743</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>peakValue</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>3.710418531719522</v>
-      </c>
-      <c r="D8" t="n">
-        <v>79.99313725490197</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>reactionTime</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>-1.829882473179254</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-1.270588235294117</v>
+        <v>32.3357843137255</v>
       </c>
     </row>
   </sheetData>

--- a/[5] Tester Results/RECORDER_EFFECT_AVG_BY_SEX_METRIC.xlsx
+++ b/[5] Tester Results/RECORDER_EFFECT_AVG_BY_SEX_METRIC.xlsx
@@ -517,14 +517,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.2430287871187781</v>
+        <v>2.765747531428104</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1397058823529367</v>
+        <v>32.3357843137255</v>
       </c>
     </row>
     <row r="6">
@@ -535,14 +535,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>reactionTime</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.765747531428104</v>
+        <v>0.2430287871187781</v>
       </c>
       <c r="D6" t="n">
-        <v>32.3357843137255</v>
+        <v>0.1397058823529367</v>
       </c>
     </row>
   </sheetData>
